--- a/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
@@ -99,6 +99,31 @@
     </comment>
     <comment authorId="0" ref="Q1">
       <text>
+        <t xml:space="preserve">The datafile and/or individualID includes cognitive variables and/or scores from the Montreal Cognitive Assessment (MoCA)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="R1">
+      <text>
+        <t xml:space="preserve">The datafile and/or individualID includes cognitive variables and/or scores from the Cognitive Abilities Screening Instrument (CASI)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S1">
+      <text>
+        <t xml:space="preserve">The datafile and/or individualID includes cognitive variables and/or scores from the The Clinical Dementia Rating (CDR)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="T1">
+      <text>
+        <t xml:space="preserve">The datafile and/or individualID includes cognitive variables and/or scores from the Mini-Mental State Examination (MMSE)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="U1">
+      <text>
+        <t xml:space="preserve">The datafile and/or individualID includes cognitive variables and/or scores from the Activities of daily living (ADLs)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="V1">
+      <text>
         <t xml:space="preserve">TBD</t>
       </text>
     </comment>
@@ -107,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
   <si>
     <t>Filename</t>
   </si>
@@ -157,6 +182,21 @@
     <t>diagnosis</t>
   </si>
   <si>
+    <t>hasMoCA</t>
+  </si>
+  <si>
+    <t>hasCASI</t>
+  </si>
+  <si>
+    <t>hasCDR</t>
+  </si>
+  <si>
+    <t>hasMMSE</t>
+  </si>
+  <si>
+    <t>hasADLs</t>
+  </si>
+  <si>
     <t>Component</t>
   </si>
   <si>
@@ -187,6 +227,9 @@
     <t>AD-DS</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>ACT</t>
   </si>
   <si>
@@ -209,6 +252,9 @@
   </si>
   <si>
     <t>Affective Disorder</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>ADNI</t>
@@ -855,8 +901,12 @@
     <col customWidth="1" min="13" max="13" width="11.13"/>
     <col customWidth="1" min="14" max="14" width="3.13"/>
     <col customWidth="1" min="15" max="15" width="10.38"/>
-    <col customWidth="1" min="16" max="16" width="6.63"/>
-    <col customWidth="1" min="17" max="17" width="7.75"/>
+    <col customWidth="1" min="16" max="17" width="6.63"/>
+    <col customWidth="1" min="18" max="18" width="5.88"/>
+    <col customWidth="1" min="19" max="19" width="5.5"/>
+    <col customWidth="1" min="20" max="20" width="6.88"/>
+    <col customWidth="1" min="21" max="21" width="6.13"/>
+    <col customWidth="1" min="22" max="22" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -911,11 +961,21 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -937,14 +997,14 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="V2" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -27903,8 +27963,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
-      <formula1>Sheet2!$L$2:$L$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
+      <formula1>Sheet2!$R$2:$R$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$3</formula1>
@@ -27912,14 +27972,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
-      <formula1>Sheet2!$P$2:$P$53</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
+      <formula1>Sheet2!$Q$2:$Q$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$44</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="U2:U1000">
+      <formula1>Sheet2!$U$2:$U$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
+      <formula1>Sheet2!$L$2:$L$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
+      <formula1>Sheet2!$P$2:$P$53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="S2:S1000">
+      <formula1>Sheet2!$S$2:$S$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="T2:T1000">
+      <formula1>Sheet2!$T$2:$T$3</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -27989,496 +28064,541 @@
       <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="38">
       <c r="C38" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45">
       <c r="P45" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46">
       <c r="P46" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47">
       <c r="P47" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
       <c r="P48" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
       <c r="P49" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50">
       <c r="P50" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
       <c r="P51" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52">
       <c r="P52" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="P53" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>Filename</t>
   </si>
@@ -203,10 +203,10 @@
     <t>IndividualHumanTemplate</t>
   </si>
   <si>
-    <t>ABC-DS</t>
+    <t>Arivale Scientific Wellness Study (SWS)</t>
   </si>
   <si>
-    <t>ILO</t>
+    <t>CDCP</t>
   </si>
   <si>
     <t>Bird</t>
@@ -230,10 +230,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>ACT</t>
+    <t>Cardiovascular Health Study (CHS)</t>
   </si>
   <si>
-    <t>LC</t>
+    <t>ILO</t>
   </si>
   <si>
     <t>Human</t>
@@ -242,10 +242,10 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Asian</t>
+    <t>Ashkenazi Jewish</t>
   </si>
   <si>
-    <t>Not Applicable</t>
+    <t>Not applicable</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -257,16 +257,28 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>ADNI</t>
+    <t>Centenarian</t>
   </si>
   <si>
-    <t>LG</t>
+    <t>LC</t>
   </si>
   <si>
     <t>Mammal</t>
   </si>
   <si>
-    <t>Not applicable</t>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Not collected</t>
+  </si>
+  <si>
+    <t>Alzheimer Disease</t>
+  </si>
+  <si>
+    <t>Denmark Family</t>
+  </si>
+  <si>
+    <t>LG</t>
   </si>
   <si>
     <t>Black or African American</t>
@@ -275,61 +287,40 @@
     <t>Not Hispanic or Latino</t>
   </si>
   <si>
-    <t>Alzheimer Disease</t>
-  </si>
-  <si>
-    <t>Banner</t>
+    <t>Alzheimer disease with psychosis</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Not collected</t>
+    <t>Not specified</t>
   </si>
   <si>
     <t>Multiracial</t>
   </si>
   <si>
-    <t>Prefer not to answer</t>
+    <t>Other ethnicity</t>
   </si>
   <si>
-    <t>Alzheimer disease with psychosis</t>
+    <t>amyotrophic lateral sclerosis</t>
   </si>
   <si>
-    <t>BEB-Miller</t>
-  </si>
-  <si>
-    <t>Not specified</t>
+    <t>other</t>
   </si>
   <si>
     <t>Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
-    <t>amyotrophic lateral sclerosis</t>
-  </si>
-  <si>
-    <t>Biggs Institute Brain Bank</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>Prefer not to answer</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>BLSA</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Autism Spectrum Disorder</t>
-  </si>
-  <si>
-    <t>CHDWB</t>
   </si>
   <si>
     <t>Primate</t>
@@ -338,211 +329,130 @@
     <t>Bipolar Disorder</t>
   </si>
   <si>
-    <t>CHS</t>
+    <t>Study of Osteoporotic Fractures (SOF)</t>
   </si>
   <si>
     <t>Rodent</t>
   </si>
   <si>
+    <t>Other race</t>
+  </si>
+  <si>
     <t>Bladder Cancer</t>
   </si>
   <si>
-    <t>CLINCOR</t>
+    <t>SuperAgers Family Study</t>
   </si>
   <si>
     <t>Brain Cancer</t>
   </si>
   <si>
-    <t>Columbia ADRC</t>
+    <t>The Health Aging and Body Composition Studay (HealthABC)</t>
   </si>
   <si>
     <t>Breast Cancer</t>
   </si>
   <si>
-    <t>DiCAD</t>
+    <t>The Osteoporotic Fractures in Men (MrOS) Study</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
   <si>
     <t>Cervical Cancer</t>
   </si>
   <si>
-    <t>EFIGA</t>
-  </si>
-  <si>
     <t>Colon Cancer</t>
   </si>
   <si>
-    <t>EHBS</t>
+    <t>US Family</t>
   </si>
   <si>
     <t>control</t>
   </si>
   <si>
-    <t>Emory ADRC</t>
-  </si>
-  <si>
     <t>corticobasal degeneration disorder</t>
-  </si>
-  <si>
-    <t>FBS</t>
   </si>
   <si>
     <t>CS-DS</t>
   </si>
   <si>
-    <t>Framingham</t>
-  </si>
-  <si>
     <t>dementia</t>
-  </si>
-  <si>
-    <t>HABC</t>
   </si>
   <si>
     <t>dystonia</t>
   </si>
   <si>
-    <t>HBCC</t>
-  </si>
-  <si>
     <t>essential tremor</t>
-  </si>
-  <si>
-    <t>HBTRC</t>
   </si>
   <si>
     <t>Fibrocystic Breast Disease</t>
   </si>
   <si>
-    <t>HPGP</t>
-  </si>
-  <si>
     <t>frontotemporal dementia</t>
-  </si>
-  <si>
-    <t>HUP</t>
   </si>
   <si>
     <t>gliosis</t>
   </si>
   <si>
-    <t>LBP</t>
-  </si>
-  <si>
     <t>hypoxia</t>
-  </si>
-  <si>
-    <t>MARS</t>
   </si>
   <si>
     <t>Juvenile Myelomonocytic Leukemia</t>
   </si>
   <si>
-    <t>MAYO</t>
-  </si>
-  <si>
     <t>Leukemia</t>
-  </si>
-  <si>
-    <t>Mayo Clinic</t>
   </si>
   <si>
     <t>Lewy body disease</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>Longevity</t>
-  </si>
-  <si>
-    <t>MCJ</t>
   </si>
   <si>
     <t>Lung Cancer</t>
   </si>
   <si>
-    <t>MCR</t>
-  </si>
-  <si>
     <t>Major Depressive Disorder</t>
-  </si>
-  <si>
-    <t>MrOS</t>
   </si>
   <si>
     <t>MCI-DS</t>
   </si>
   <si>
-    <t>MSBB</t>
-  </si>
-  <si>
     <t>mild cognitive impairment</t>
-  </si>
-  <si>
-    <t>NYBB</t>
   </si>
   <si>
     <t>multiple system atrophy</t>
   </si>
   <si>
-    <t>Pitt ADRC</t>
-  </si>
-  <si>
     <t>Neurofibromatosis 1</t>
-  </si>
-  <si>
-    <t>RADC</t>
   </si>
   <si>
     <t>Neurofibromatosis 2</t>
   </si>
   <si>
-    <t>ROSMAP</t>
-  </si>
-  <si>
     <t>no cognitive impairment</t>
   </si>
   <si>
-    <t>SMRI</t>
-  </si>
-  <si>
-    <t>SOF</t>
+    <t>Not Applicable</t>
   </si>
   <si>
     <t>obesity</t>
   </si>
   <si>
-    <t>UFL</t>
-  </si>
-  <si>
     <t>obsessive compulsive disorder</t>
-  </si>
-  <si>
-    <t>UK Biobank</t>
   </si>
   <si>
     <t>Ovary Cancer</t>
   </si>
   <si>
-    <t>UPBB</t>
-  </si>
-  <si>
     <t>Pancreatic Cancer</t>
-  </si>
-  <si>
-    <t>UPenn</t>
   </si>
   <si>
     <t>Parkinson's disease</t>
   </si>
   <si>
-    <t>UW ADRC</t>
-  </si>
-  <si>
     <t>pathological aging</t>
-  </si>
-  <si>
-    <t>WHICAP</t>
   </si>
   <si>
     <t>progressive supranuclear palsy</t>
@@ -27957,14 +27867,14 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
-      <formula1>Sheet2!$K$2:$K$8</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
       <formula1>Sheet2!$R$2:$R$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
+      <formula1>Sheet2!$K$2:$K$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$3</formula1>
@@ -27975,17 +27885,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$44</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
-      <formula1>Sheet2!$D$2:$D$5</formula1>
+      <formula1>Sheet2!$D$2:$D$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="U2:U1000">
       <formula1>Sheet2!$U$2:$U$3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
+      <formula1>Sheet2!$C$2:$C$15</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
-      <formula1>Sheet2!$L$2:$L$5</formula1>
+      <formula1>Sheet2!$L$2:$L$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$53</formula1>
@@ -28173,70 +28083,82 @@
         <v>43</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="7" t="s">
+    </row>
+    <row r="5">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="7" t="s">
+    </row>
+    <row r="6">
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="7" t="s">
+    </row>
+    <row r="7">
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>60</v>
@@ -28244,361 +28166,292 @@
     </row>
     <row r="8">
       <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="7" t="s">
+    <row r="12">
+      <c r="C12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>62</v>
+      <c r="K12" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="7" t="s">
+    <row r="13">
+      <c r="C13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+    </row>
+    <row r="14">
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" s="7" t="s">
+    <row r="15">
+      <c r="C15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="7" t="s">
+    <row r="16">
+      <c r="P16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="7" t="s">
+    </row>
+    <row r="17">
+      <c r="P17" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="7" t="s">
+    <row r="18">
+      <c r="P18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
+    </row>
+    <row r="19">
+      <c r="P19" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="7" t="s">
+    <row r="20">
+      <c r="P20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
+    </row>
+    <row r="21">
+      <c r="P21" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="7" t="s">
+    <row r="22">
+      <c r="P22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="7" t="s">
+    </row>
+    <row r="23">
+      <c r="P23" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="7" t="s">
+    <row r="24">
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="7" t="s">
+    </row>
+    <row r="25">
+      <c r="P25" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="7" t="s">
+    <row r="26">
+      <c r="P26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="7" t="s">
+    </row>
+    <row r="27">
+      <c r="P27" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="7" t="s">
+    <row r="28">
+      <c r="P28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="7" t="s">
+    </row>
+    <row r="29">
+      <c r="P29" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="7" t="s">
+    <row r="30">
+      <c r="P30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="7" t="s">
+    </row>
+    <row r="31">
+      <c r="P31" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="7" t="s">
+    <row r="32">
+      <c r="P32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P23" s="7" t="s">
+    </row>
+    <row r="33">
+      <c r="P33" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="7" t="s">
+    <row r="34">
+      <c r="P34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P24" s="7" t="s">
+    </row>
+    <row r="35">
+      <c r="P35" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="7" t="s">
+    <row r="36">
+      <c r="P36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="7" t="s">
+    </row>
+    <row r="37">
+      <c r="P37" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" s="7" t="s">
+    <row r="38">
+      <c r="P38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+    </row>
+    <row r="39">
+      <c r="P39" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27">
-      <c r="C27" s="7" t="s">
+    <row r="40">
+      <c r="P40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P27" s="7" t="s">
+    </row>
+    <row r="41">
+      <c r="P41" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" s="7" t="s">
+    <row r="42">
+      <c r="P42" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="7" t="s">
+    </row>
+    <row r="43">
+      <c r="P43" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29">
-      <c r="C29" s="7" t="s">
+    <row r="44">
+      <c r="P44" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P29" s="7" t="s">
+    </row>
+    <row r="45">
+      <c r="P45" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30">
-      <c r="C30" s="7" t="s">
+    <row r="46">
+      <c r="P46" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P30" s="7" t="s">
+    </row>
+    <row r="47">
+      <c r="P47" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" s="7" t="s">
+    <row r="48">
+      <c r="P48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P31" s="7" t="s">
+    </row>
+    <row r="49">
+      <c r="P49" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32">
-      <c r="C32" s="7" t="s">
+    <row r="50">
+      <c r="P50" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P32" s="7" t="s">
+    </row>
+    <row r="51">
+      <c r="P51" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33">
-      <c r="C33" s="7" t="s">
+    <row r="52">
+      <c r="P52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="P45" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="P46" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="P47" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="P48" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="P49" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="P50" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="P51" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="P52" s="7" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="53">
       <c r="P53" s="7" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>Filename</t>
   </si>
@@ -209,7 +209,7 @@
     <t>CDCP</t>
   </si>
   <si>
-    <t>Bird</t>
+    <t>Amphibian</t>
   </si>
   <si>
     <t>Female</t>
@@ -236,7 +236,7 @@
     <t>ILO</t>
   </si>
   <si>
-    <t>Human</t>
+    <t>Bird</t>
   </si>
   <si>
     <t>Male</t>
@@ -263,7 +263,7 @@
     <t>LC</t>
   </si>
   <si>
-    <t>Mammal</t>
+    <t>Fish</t>
   </si>
   <si>
     <t>Asian</t>
@@ -281,6 +281,9 @@
     <t>LG</t>
   </si>
   <si>
+    <t>Invertebrate</t>
+  </si>
+  <si>
     <t>Black or African American</t>
   </si>
   <si>
@@ -291,6 +294,9 @@
   </si>
   <si>
     <t>LLFS</t>
+  </si>
+  <si>
+    <t>Mammal</t>
   </si>
   <si>
     <t>Not specified</t>
@@ -323,16 +329,13 @@
     <t>Autism Spectrum Disorder</t>
   </si>
   <si>
-    <t>Primate</t>
-  </si>
-  <si>
     <t>Bipolar Disorder</t>
   </si>
   <si>
     <t>Study of Osteoporotic Fractures (SOF)</t>
   </si>
   <si>
-    <t>Rodent</t>
+    <t>Reptile</t>
   </si>
   <si>
     <t>Other race</t>
@@ -28103,19 +28106,19 @@
         <v>48</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -28123,22 +28126,22 @@
         <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -28146,312 +28149,312 @@
         <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="P20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="P21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="P22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="P23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="P26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="P27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="P28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="P30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="P31" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="P32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
       <c r="P33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="P34" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="P35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="P36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="P37" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="P38" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="P39" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="P40" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="P41" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="P42" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="P43" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="P44" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="P45" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="P46" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="P47" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="P48" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="P49" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="P50" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
       <c r="P51" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
       <c r="P52" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="P53" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_IndividualHumanTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -592,6 +592,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
